--- a/client/excel/test.xlsx
+++ b/client/excel/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzehao/Desktop/doc/git/chat/baicai_Chat/client/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A1349-525F-1C4D-9A68-0E6922B7ED22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E25BBA-4829-7448-9ACA-B79A441284DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="8520" windowWidth="28040" windowHeight="15940" xr2:uid="{38169CEB-3F80-AA41-B05E-1B98240010E1}"/>
+    <workbookView xWindow="760" yWindow="2060" windowWidth="28040" windowHeight="15940" xr2:uid="{38169CEB-3F80-AA41-B05E-1B98240010E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>enzuosi</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>star</t>
   </si>
 </sst>
 </file>
@@ -406,31 +412,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE57B4B8-6CB0-4B40-898F-E182AF9780BB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -438,52 +450,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/client/excel/test.xlsx
+++ b/client/excel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzehao/Desktop/doc/git/chat/baicai_Chat/client/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E25BBA-4829-7448-9ACA-B79A441284DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED77988-3BC9-074A-A8CE-4CE7BAE085FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="2060" windowWidth="28040" windowHeight="15940" xr2:uid="{38169CEB-3F80-AA41-B05E-1B98240010E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>混吃|等死</t>
+  </si>
+  <si>
+    <t>大佬</t>
+  </si>
+  <si>
+    <t>混子|策划</t>
   </si>
 </sst>
 </file>
@@ -412,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE57B4B8-6CB0-4B40-898F-E182AF9780BB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +445,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -441,16 +459,22 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -460,8 +484,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -471,8 +498,11 @@
       <c r="C5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -482,8 +512,11 @@
       <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -493,8 +526,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -504,8 +540,11 @@
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -514,6 +553,9 @@
       </c>
       <c r="C9">
         <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
